--- a/consol_pril/consol_pril/Tables.xlsx
+++ b/consol_pril/consol_pril/Tables.xlsx
@@ -533,94 +533,94 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.00159265</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.209365</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.407997</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.588816</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.743926</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.866556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.9513509999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.99461</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.994444</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.950859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.86576</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.742861</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.5875280000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.406543</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.207808</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.10068e-16</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.207808</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.406543</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.5875280000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.742861</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.86576</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.950859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.994444</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.99461</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.9513509999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.866556</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.743926</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.588816</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.407997</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.209365</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -634,91 +634,91 @@
         <v>0.128889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111066</v>
+        <v>0.286684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0976897</v>
+        <v>0.440968</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0870054</v>
+        <v>0.583178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07818940000000001</v>
+        <v>0.706071</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0707927</v>
+        <v>0.803635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06454029999999999</v>
+        <v>0.871236</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0592494</v>
+        <v>0.90581</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0547916</v>
+        <v>0.906031</v>
       </c>
       <c r="K3" t="n">
-        <v>0.051073</v>
+        <v>0.872416</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0480237</v>
+        <v>0.807397</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0455912</v>
+        <v>0.715427</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0437363</v>
+        <v>0.603322</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0424305</v>
+        <v>0.481378</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0416544</v>
+        <v>0.366966</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.041397</v>
+        <v>0.296406</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0416544</v>
+        <v>0.366966</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0424305</v>
+        <v>0.481378</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0437363</v>
+        <v>0.603322</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0455912</v>
+        <v>0.715427</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0480237</v>
+        <v>0.807397</v>
       </c>
       <c r="W3" t="n">
-        <v>0.051073</v>
+        <v>0.872416</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0547916</v>
+        <v>0.906031</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0592494</v>
+        <v>0.90581</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06454029999999999</v>
+        <v>0.871236</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0707927</v>
+        <v>0.803635</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07818940000000001</v>
+        <v>0.706071</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0870054</v>
+        <v>0.583178</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0976897</v>
+        <v>0.440968</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.111066</v>
+        <v>0.286684</v>
       </c>
       <c r="AF3" t="n">
         <v>0.128889</v>
@@ -732,91 +732,91 @@
         <v>0.248889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21769</v>
+        <v>0.367243</v>
       </c>
       <c r="D4" t="n">
-        <v>0.192696</v>
+        <v>0.485212</v>
       </c>
       <c r="E4" t="n">
-        <v>0.172155</v>
+        <v>0.595236</v>
       </c>
       <c r="F4" t="n">
-        <v>0.154976</v>
+        <v>0.6909419999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.140462</v>
+        <v>0.767139</v>
       </c>
       <c r="H4" t="n">
-        <v>0.128143</v>
+        <v>0.8199419999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.117693</v>
+        <v>0.846929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.108874</v>
+        <v>0.847287</v>
       </c>
       <c r="K4" t="n">
-        <v>0.10151</v>
+        <v>0.821904</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0954663</v>
+        <v>0.773461</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0906425</v>
+        <v>0.706583</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0869626</v>
+        <v>0.62821</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0843714</v>
+        <v>0.548441</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08283119999999999</v>
+        <v>0.482245</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0823202</v>
+        <v>0.451694</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08283119999999999</v>
+        <v>0.482245</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0843714</v>
+        <v>0.548441</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0869626</v>
+        <v>0.62821</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0906425</v>
+        <v>0.706583</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0954663</v>
+        <v>0.773461</v>
       </c>
       <c r="W4" t="n">
-        <v>0.10151</v>
+        <v>0.821904</v>
       </c>
       <c r="X4" t="n">
-        <v>0.108874</v>
+        <v>0.847287</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.117693</v>
+        <v>0.846929</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.128143</v>
+        <v>0.8199419999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.140462</v>
+        <v>0.767139</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.154976</v>
+        <v>0.6909419999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.172155</v>
+        <v>0.595236</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.192696</v>
+        <v>0.485212</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.21769</v>
+        <v>0.367243</v>
       </c>
       <c r="AF4" t="n">
         <v>0.248889</v>
@@ -830,91 +830,91 @@
         <v>0.36</v>
       </c>
       <c r="C5" t="n">
-        <v>0.318116</v>
+        <v>0.447385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.283266</v>
+        <v>0.535841</v>
       </c>
       <c r="E5" t="n">
-        <v>0.253968</v>
+        <v>0.619146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.229133</v>
+        <v>0.691961</v>
       </c>
       <c r="G5" t="n">
-        <v>0.207976</v>
+        <v>0.7499749999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.189926</v>
+        <v>0.790045</v>
       </c>
       <c r="I5" t="n">
-        <v>0.174561</v>
+        <v>0.810331</v>
       </c>
       <c r="J5" t="n">
-        <v>0.161564</v>
+        <v>0.810415</v>
       </c>
       <c r="K5" t="n">
-        <v>0.150692</v>
+        <v>0.791362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.14176</v>
+        <v>0.755787</v>
       </c>
       <c r="M5" t="n">
-        <v>0.134625</v>
+        <v>0.70794</v>
       </c>
       <c r="N5" t="n">
-        <v>0.129178</v>
+        <v>0.653881</v>
       </c>
       <c r="O5" t="n">
-        <v>0.125341</v>
+        <v>0.601737</v>
       </c>
       <c r="P5" t="n">
-        <v>0.12306</v>
+        <v>0.561854</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.122303</v>
+        <v>0.545882</v>
       </c>
       <c r="R5" t="n">
-        <v>0.12306</v>
+        <v>0.561854</v>
       </c>
       <c r="S5" t="n">
-        <v>0.125341</v>
+        <v>0.601737</v>
       </c>
       <c r="T5" t="n">
-        <v>0.129178</v>
+        <v>0.653881</v>
       </c>
       <c r="U5" t="n">
-        <v>0.134625</v>
+        <v>0.70794</v>
       </c>
       <c r="V5" t="n">
-        <v>0.14176</v>
+        <v>0.755787</v>
       </c>
       <c r="W5" t="n">
-        <v>0.150692</v>
+        <v>0.791362</v>
       </c>
       <c r="X5" t="n">
-        <v>0.161564</v>
+        <v>0.810415</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.174561</v>
+        <v>0.810331</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.189926</v>
+        <v>0.790045</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.207976</v>
+        <v>0.7499749999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.229133</v>
+        <v>0.691961</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.253968</v>
+        <v>0.619146</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.283266</v>
+        <v>0.535841</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.318116</v>
+        <v>0.447385</v>
       </c>
       <c r="AF5" t="n">
         <v>0.36</v>
@@ -928,91 +928,91 @@
         <v>0.462222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.411523</v>
+        <v>0.524831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36831</v>
+        <v>0.589155</v>
       </c>
       <c r="E6" t="n">
-        <v>0.331355</v>
+        <v>0.650245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.299661</v>
+        <v>0.703805</v>
       </c>
       <c r="G6" t="n">
-        <v>0.272443</v>
+        <v>0.746382</v>
       </c>
       <c r="H6" t="n">
-        <v>0.249094</v>
+        <v>0.775511</v>
       </c>
       <c r="I6" t="n">
-        <v>0.229142</v>
+        <v>0.789838</v>
       </c>
       <c r="J6" t="n">
-        <v>0.212218</v>
+        <v>0.7892</v>
       </c>
       <c r="K6" t="n">
-        <v>0.198033</v>
+        <v>0.774668</v>
       </c>
       <c r="L6" t="n">
-        <v>0.186362</v>
+        <v>0.7485579999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.177029</v>
+        <v>0.7144430000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.169899</v>
+        <v>0.6771430000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>0.164874</v>
+        <v>0.64261</v>
       </c>
       <c r="P6" t="n">
-        <v>0.161886</v>
+        <v>0.61753</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.160894</v>
+        <v>0.6081260000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>0.161886</v>
+        <v>0.61753</v>
       </c>
       <c r="S6" t="n">
-        <v>0.164874</v>
+        <v>0.64261</v>
       </c>
       <c r="T6" t="n">
-        <v>0.169899</v>
+        <v>0.6771430000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>0.177029</v>
+        <v>0.7144430000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>0.186362</v>
+        <v>0.7485579999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>0.198033</v>
+        <v>0.774668</v>
       </c>
       <c r="X6" t="n">
-        <v>0.212218</v>
+        <v>0.7892</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.229142</v>
+        <v>0.789838</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.249094</v>
+        <v>0.775511</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.272443</v>
+        <v>0.746382</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.299661</v>
+        <v>0.703805</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.331355</v>
+        <v>0.650245</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.36831</v>
+        <v>0.589155</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.411523</v>
+        <v>0.524831</v>
       </c>
       <c r="AF6" t="n">
         <v>0.462222</v>
@@ -1026,91 +1026,91 @@
         <v>0.555556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.497459</v>
+        <v>0.597958</v>
       </c>
       <c r="D7" t="n">
-        <v>0.447128</v>
+        <v>0.642342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.403531</v>
+        <v>0.684898</v>
       </c>
       <c r="F7" t="n">
-        <v>0.365776</v>
+        <v>0.722281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333122</v>
+        <v>0.7518010000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.304961</v>
+        <v>0.7715689999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.280803</v>
+        <v>0.780597</v>
       </c>
       <c r="J7" t="n">
-        <v>0.260252</v>
+        <v>0.7788580000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.24299</v>
+        <v>0.767303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.228765</v>
+        <v>0.7478399999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.217376</v>
+        <v>0.723283</v>
       </c>
       <c r="N7" t="n">
-        <v>0.208668</v>
+        <v>0.697248</v>
       </c>
       <c r="O7" t="n">
-        <v>0.202528</v>
+        <v>0.673906</v>
       </c>
       <c r="P7" t="n">
-        <v>0.198874</v>
+        <v>0.657514</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.197662</v>
+        <v>0.651558</v>
       </c>
       <c r="R7" t="n">
-        <v>0.198874</v>
+        <v>0.657514</v>
       </c>
       <c r="S7" t="n">
-        <v>0.202528</v>
+        <v>0.673906</v>
       </c>
       <c r="T7" t="n">
-        <v>0.208668</v>
+        <v>0.697248</v>
       </c>
       <c r="U7" t="n">
-        <v>0.217376</v>
+        <v>0.723283</v>
       </c>
       <c r="V7" t="n">
-        <v>0.228765</v>
+        <v>0.7478399999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>0.24299</v>
+        <v>0.767303</v>
       </c>
       <c r="X7" t="n">
-        <v>0.260252</v>
+        <v>0.7788580000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.280803</v>
+        <v>0.780597</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.304961</v>
+        <v>0.7715689999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.333122</v>
+        <v>0.7518010000000001</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.365776</v>
+        <v>0.722281</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.403531</v>
+        <v>0.684898</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.447128</v>
+        <v>0.642342</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.497459</v>
+        <v>0.597958</v>
       </c>
       <c r="AF7" t="n">
         <v>0.555556</v>
@@ -1124,91 +1124,91 @@
         <v>0.64</v>
       </c>
       <c r="C8" t="n">
-        <v>0.575651</v>
+        <v>0.665563</v>
       </c>
       <c r="D8" t="n">
-        <v>0.519254</v>
+        <v>0.6932970000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.469926</v>
+        <v>0.720354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.426872</v>
+        <v>0.744185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.389405</v>
+        <v>0.762731</v>
       </c>
       <c r="H8" t="n">
-        <v>0.35694</v>
+        <v>0.77455</v>
       </c>
       <c r="I8" t="n">
-        <v>0.328988</v>
+        <v>0.778903</v>
       </c>
       <c r="J8" t="n">
-        <v>0.305142</v>
+        <v>0.775807</v>
       </c>
       <c r="K8" t="n">
-        <v>0.28507</v>
+        <v>0.766026</v>
       </c>
       <c r="L8" t="n">
-        <v>0.268502</v>
+        <v>0.751033</v>
       </c>
       <c r="M8" t="n">
-        <v>0.255221</v>
+        <v>0.732943</v>
       </c>
       <c r="N8" t="n">
-        <v>0.245058</v>
+        <v>0.7143659999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>0.237886</v>
+        <v>0.698161</v>
       </c>
       <c r="P8" t="n">
-        <v>0.233618</v>
+        <v>0.687047</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2322</v>
+        <v>0.683079</v>
       </c>
       <c r="R8" t="n">
-        <v>0.233618</v>
+        <v>0.687047</v>
       </c>
       <c r="S8" t="n">
-        <v>0.237886</v>
+        <v>0.698161</v>
       </c>
       <c r="T8" t="n">
-        <v>0.245058</v>
+        <v>0.7143659999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>0.255221</v>
+        <v>0.732943</v>
       </c>
       <c r="V8" t="n">
-        <v>0.268502</v>
+        <v>0.751033</v>
       </c>
       <c r="W8" t="n">
-        <v>0.28507</v>
+        <v>0.766026</v>
       </c>
       <c r="X8" t="n">
-        <v>0.305142</v>
+        <v>0.775807</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.328988</v>
+        <v>0.778903</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.35694</v>
+        <v>0.77455</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.389405</v>
+        <v>0.762731</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.426872</v>
+        <v>0.744185</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.469926</v>
+        <v>0.720354</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.519254</v>
+        <v>0.6932970000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.575651</v>
+        <v>0.665563</v>
       </c>
       <c r="AF8" t="n">
         <v>0.64</v>
@@ -1222,91 +1222,91 @@
         <v>0.715556</v>
       </c>
       <c r="C9" t="n">
-        <v>0.645916</v>
+        <v>0.726789</v>
       </c>
       <c r="D9" t="n">
-        <v>0.58436</v>
+        <v>0.740511</v>
       </c>
       <c r="E9" t="n">
-        <v>0.530116</v>
+        <v>0.754613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.482476</v>
+        <v>0.76716</v>
       </c>
       <c r="G9" t="n">
-        <v>0.440803</v>
+        <v>0.776564</v>
       </c>
       <c r="H9" t="n">
-        <v>0.404543</v>
+        <v>0.781703</v>
       </c>
       <c r="I9" t="n">
-        <v>0.37322</v>
+        <v>0.781987</v>
       </c>
       <c r="J9" t="n">
-        <v>0.34643</v>
+        <v>0.777411</v>
       </c>
       <c r="K9" t="n">
-        <v>0.323834</v>
+        <v>0.768529</v>
       </c>
       <c r="L9" t="n">
-        <v>0.305153</v>
+        <v>0.756417</v>
       </c>
       <c r="M9" t="n">
-        <v>0.29016</v>
+        <v>0.742595</v>
       </c>
       <c r="N9" t="n">
-        <v>0.278676</v>
+        <v>0.728898</v>
       </c>
       <c r="O9" t="n">
-        <v>0.270568</v>
+        <v>0.717259</v>
       </c>
       <c r="P9" t="n">
-        <v>0.26574</v>
+        <v>0.7094279999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.264136</v>
+        <v>0.706663</v>
       </c>
       <c r="R9" t="n">
-        <v>0.26574</v>
+        <v>0.7094279999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>0.270568</v>
+        <v>0.717259</v>
       </c>
       <c r="T9" t="n">
-        <v>0.278676</v>
+        <v>0.728898</v>
       </c>
       <c r="U9" t="n">
-        <v>0.29016</v>
+        <v>0.742595</v>
       </c>
       <c r="V9" t="n">
-        <v>0.305153</v>
+        <v>0.756417</v>
       </c>
       <c r="W9" t="n">
-        <v>0.323834</v>
+        <v>0.768529</v>
       </c>
       <c r="X9" t="n">
-        <v>0.34643</v>
+        <v>0.777411</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.37322</v>
+        <v>0.781987</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.404543</v>
+        <v>0.781703</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.440803</v>
+        <v>0.776564</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.482476</v>
+        <v>0.76716</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.530116</v>
+        <v>0.754613</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.58436</v>
+        <v>0.740511</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.645916</v>
+        <v>0.726789</v>
       </c>
       <c r="AF9" t="n">
         <v>0.715556</v>
@@ -1320,91 +1320,91 @@
         <v>0.782222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.708125</v>
+        <v>0.78109</v>
       </c>
       <c r="D10" t="n">
-        <v>0.642208</v>
+        <v>0.782996</v>
       </c>
       <c r="E10" t="n">
-        <v>0.583786</v>
+        <v>0.786328</v>
       </c>
       <c r="F10" t="n">
-        <v>0.532218</v>
+        <v>0.789568</v>
       </c>
       <c r="G10" t="n">
-        <v>0.486918</v>
+        <v>0.791444</v>
       </c>
       <c r="H10" t="n">
-        <v>0.447364</v>
+        <v>0.79104</v>
       </c>
       <c r="I10" t="n">
-        <v>0.413097</v>
+        <v>0.787839</v>
       </c>
       <c r="J10" t="n">
-        <v>0.38372</v>
+        <v>0.781775</v>
       </c>
       <c r="K10" t="n">
-        <v>0.358896</v>
+        <v>0.7732</v>
       </c>
       <c r="L10" t="n">
-        <v>0.338343</v>
+        <v>0.762848</v>
       </c>
       <c r="M10" t="n">
-        <v>0.321829</v>
+        <v>0.751771</v>
       </c>
       <c r="N10" t="n">
-        <v>0.30917</v>
+        <v>0.741225</v>
       </c>
       <c r="O10" t="n">
-        <v>0.300226</v>
+        <v>0.732504</v>
       </c>
       <c r="P10" t="n">
-        <v>0.294899</v>
+        <v>0.7267400000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.293129</v>
+        <v>0.724724</v>
       </c>
       <c r="R10" t="n">
-        <v>0.294899</v>
+        <v>0.7267400000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>0.300226</v>
+        <v>0.732504</v>
       </c>
       <c r="T10" t="n">
-        <v>0.30917</v>
+        <v>0.741225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.321829</v>
+        <v>0.751771</v>
       </c>
       <c r="V10" t="n">
-        <v>0.338343</v>
+        <v>0.762848</v>
       </c>
       <c r="W10" t="n">
-        <v>0.358896</v>
+        <v>0.7732</v>
       </c>
       <c r="X10" t="n">
-        <v>0.38372</v>
+        <v>0.781775</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.413097</v>
+        <v>0.787839</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.447364</v>
+        <v>0.79104</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.486918</v>
+        <v>0.791444</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.532218</v>
+        <v>0.789568</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.583786</v>
+        <v>0.786328</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.642208</v>
+        <v>0.782996</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.708125</v>
+        <v>0.78109</v>
       </c>
       <c r="AF10" t="n">
         <v>0.782222</v>
@@ -1418,91 +1418,91 @@
         <v>0.84</v>
       </c>
       <c r="C11" t="n">
-        <v>0.762184</v>
+        <v>0.828184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.692621</v>
+        <v>0.820188</v>
       </c>
       <c r="E11" t="n">
-        <v>0.630692</v>
+        <v>0.814657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.575811</v>
+        <v>0.810315</v>
       </c>
       <c r="G11" t="n">
-        <v>0.527435</v>
+        <v>0.80608</v>
       </c>
       <c r="H11" t="n">
-        <v>0.48507</v>
+        <v>0.801143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.448278</v>
+        <v>0.795011</v>
       </c>
       <c r="J11" t="n">
-        <v>0.416674</v>
+        <v>0.787536</v>
       </c>
       <c r="K11" t="n">
-        <v>0.389924</v>
+        <v>0.778894</v>
       </c>
       <c r="L11" t="n">
-        <v>0.367747</v>
+        <v>0.769543</v>
       </c>
       <c r="M11" t="n">
-        <v>0.349911</v>
+        <v>0.760175</v>
       </c>
       <c r="N11" t="n">
-        <v>0.336227</v>
+        <v>0.75163</v>
       </c>
       <c r="O11" t="n">
-        <v>0.326554</v>
+        <v>0.744762</v>
       </c>
       <c r="P11" t="n">
-        <v>0.32079</v>
+        <v>0.740302</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.318876</v>
+        <v>0.738756</v>
       </c>
       <c r="R11" t="n">
-        <v>0.32079</v>
+        <v>0.740302</v>
       </c>
       <c r="S11" t="n">
-        <v>0.326554</v>
+        <v>0.744762</v>
       </c>
       <c r="T11" t="n">
-        <v>0.336227</v>
+        <v>0.75163</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349911</v>
+        <v>0.760175</v>
       </c>
       <c r="V11" t="n">
-        <v>0.367747</v>
+        <v>0.769543</v>
       </c>
       <c r="W11" t="n">
-        <v>0.389924</v>
+        <v>0.778894</v>
       </c>
       <c r="X11" t="n">
-        <v>0.416674</v>
+        <v>0.787536</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.448278</v>
+        <v>0.795011</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.48507</v>
+        <v>0.801143</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.527435</v>
+        <v>0.80608</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.575811</v>
+        <v>0.810315</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.630692</v>
+        <v>0.814657</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.692621</v>
+        <v>0.820188</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.762184</v>
+        <v>0.828184</v>
       </c>
       <c r="AF11" t="n">
         <v>0.84</v>
@@ -1516,91 +1516,91 @@
         <v>0.888889</v>
       </c>
       <c r="C12" t="n">
-        <v>0.808024</v>
+        <v>0.867987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.735466</v>
+        <v>0.851823</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6706490000000001</v>
+        <v>0.839121</v>
       </c>
       <c r="F12" t="n">
-        <v>0.613029</v>
+        <v>0.828708</v>
       </c>
       <c r="G12" t="n">
-        <v>0.562098</v>
+        <v>0.819592</v>
       </c>
       <c r="H12" t="n">
-        <v>0.517391</v>
+        <v>0.811012</v>
       </c>
       <c r="I12" t="n">
-        <v>0.478486</v>
+        <v>0.80246</v>
       </c>
       <c r="J12" t="n">
-        <v>0.445009</v>
+        <v>0.793712</v>
       </c>
       <c r="K12" t="n">
-        <v>0.416636</v>
+        <v>0.784792</v>
       </c>
       <c r="L12" t="n">
-        <v>0.393087</v>
+        <v>0.775946</v>
       </c>
       <c r="M12" t="n">
-        <v>0.37413</v>
+        <v>0.7675999999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>0.359577</v>
+        <v>0.760296</v>
       </c>
       <c r="O12" t="n">
-        <v>0.349285</v>
+        <v>0.754588</v>
       </c>
       <c r="P12" t="n">
-        <v>0.34315</v>
+        <v>0.750946</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.341111</v>
+        <v>0.749694</v>
       </c>
       <c r="R12" t="n">
-        <v>0.34315</v>
+        <v>0.750946</v>
       </c>
       <c r="S12" t="n">
-        <v>0.349285</v>
+        <v>0.754588</v>
       </c>
       <c r="T12" t="n">
-        <v>0.359577</v>
+        <v>0.760296</v>
       </c>
       <c r="U12" t="n">
-        <v>0.37413</v>
+        <v>0.7675999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>0.393087</v>
+        <v>0.775946</v>
       </c>
       <c r="W12" t="n">
-        <v>0.416636</v>
+        <v>0.784792</v>
       </c>
       <c r="X12" t="n">
-        <v>0.445009</v>
+        <v>0.793712</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.478486</v>
+        <v>0.80246</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.517391</v>
+        <v>0.811012</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.562098</v>
+        <v>0.819592</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.613029</v>
+        <v>0.828708</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.6706490000000001</v>
+        <v>0.839121</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.735466</v>
+        <v>0.851823</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.808024</v>
+        <v>0.867987</v>
       </c>
       <c r="AF12" t="n">
         <v>0.888889</v>
@@ -1614,91 +1614,91 @@
         <v>0.928889</v>
       </c>
       <c r="C13" t="n">
-        <v>0.845591</v>
+        <v>0.900528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.770642</v>
+        <v>0.877821</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7035130000000001</v>
+        <v>0.859465</v>
       </c>
       <c r="F13" t="n">
-        <v>0.643696</v>
+        <v>0.844307</v>
       </c>
       <c r="G13" t="n">
-        <v>0.590709</v>
+        <v>0.831384</v>
       </c>
       <c r="H13" t="n">
-        <v>0.54411</v>
+        <v>0.819941</v>
       </c>
       <c r="I13" t="n">
-        <v>0.503493</v>
+        <v>0.8094440000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.468496</v>
+        <v>0.799596</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438799</v>
+        <v>0.790305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.41413</v>
+        <v>0.781657</v>
       </c>
       <c r="M13" t="n">
-        <v>0.394256</v>
+        <v>0.773887</v>
       </c>
       <c r="N13" t="n">
-        <v>0.378991</v>
+        <v>0.767328</v>
       </c>
       <c r="O13" t="n">
-        <v>0.368191</v>
+        <v>0.762332</v>
       </c>
       <c r="P13" t="n">
-        <v>0.361751</v>
+        <v>0.759195</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.359611</v>
+        <v>0.758125</v>
       </c>
       <c r="R13" t="n">
-        <v>0.361751</v>
+        <v>0.759195</v>
       </c>
       <c r="S13" t="n">
-        <v>0.368191</v>
+        <v>0.762332</v>
       </c>
       <c r="T13" t="n">
-        <v>0.378991</v>
+        <v>0.767328</v>
       </c>
       <c r="U13" t="n">
-        <v>0.394256</v>
+        <v>0.773887</v>
       </c>
       <c r="V13" t="n">
-        <v>0.41413</v>
+        <v>0.781657</v>
       </c>
       <c r="W13" t="n">
-        <v>0.438799</v>
+        <v>0.790305</v>
       </c>
       <c r="X13" t="n">
-        <v>0.468496</v>
+        <v>0.799596</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.503493</v>
+        <v>0.8094440000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.54411</v>
+        <v>0.819941</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.590709</v>
+        <v>0.831384</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.643696</v>
+        <v>0.844307</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.7035130000000001</v>
+        <v>0.859465</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.770642</v>
+        <v>0.877821</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.845591</v>
+        <v>0.900528</v>
       </c>
       <c r="AF13" t="n">
         <v>0.928889</v>
@@ -1712,91 +1712,91 @@
         <v>0.96</v>
       </c>
       <c r="C14" t="n">
-        <v>0.874847</v>
+        <v>0.9258729999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.798074</v>
+        <v>0.8981749999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.729178</v>
+        <v>0.875547</v>
       </c>
       <c r="F14" t="n">
-        <v>0.667677</v>
+        <v>0.856824</v>
       </c>
       <c r="G14" t="n">
-        <v>0.613113</v>
+        <v>0.841039</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5650579999999999</v>
+        <v>0.82743</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5231209999999999</v>
+        <v>0.81543</v>
       </c>
       <c r="J14" t="n">
-        <v>0.486948</v>
+        <v>0.804685</v>
       </c>
       <c r="K14" t="n">
-        <v>0.456227</v>
+        <v>0.795015</v>
       </c>
       <c r="L14" t="n">
-        <v>0.430688</v>
+        <v>0.786393</v>
       </c>
       <c r="M14" t="n">
-        <v>0.410103</v>
+        <v>0.7789199999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>0.394284</v>
+        <v>0.772788</v>
       </c>
       <c r="O14" t="n">
-        <v>0.383087</v>
+        <v>0.768213</v>
       </c>
       <c r="P14" t="n">
-        <v>0.37641</v>
+        <v>0.7653799999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.374191</v>
+        <v>0.76442</v>
       </c>
       <c r="R14" t="n">
-        <v>0.37641</v>
+        <v>0.7653799999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>0.383087</v>
+        <v>0.768213</v>
       </c>
       <c r="T14" t="n">
-        <v>0.394284</v>
+        <v>0.772788</v>
       </c>
       <c r="U14" t="n">
-        <v>0.410103</v>
+        <v>0.7789199999999999</v>
       </c>
       <c r="V14" t="n">
-        <v>0.430688</v>
+        <v>0.786393</v>
       </c>
       <c r="W14" t="n">
-        <v>0.456227</v>
+        <v>0.795015</v>
       </c>
       <c r="X14" t="n">
-        <v>0.486948</v>
+        <v>0.804685</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.5231209999999999</v>
+        <v>0.81543</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.5650579999999999</v>
+        <v>0.82743</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.613113</v>
+        <v>0.841039</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.667677</v>
+        <v>0.856824</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.729178</v>
+        <v>0.875547</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.798074</v>
+        <v>0.8981749999999999</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.874847</v>
+        <v>0.9258729999999999</v>
       </c>
       <c r="AF14" t="n">
         <v>0.96</v>
@@ -1810,91 +1810,91 @@
         <v>0.982222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.895764</v>
+        <v>0.944047</v>
       </c>
       <c r="D15" t="n">
-        <v>0.817705</v>
+        <v>0.912847</v>
       </c>
       <c r="E15" t="n">
-        <v>0.747563</v>
+        <v>0.887229</v>
       </c>
       <c r="F15" t="n">
-        <v>0.684874</v>
+        <v>0.866015</v>
       </c>
       <c r="G15" t="n">
-        <v>0.629194</v>
+        <v>0.848229</v>
       </c>
       <c r="H15" t="n">
-        <v>0.580108</v>
+        <v>0.833093</v>
       </c>
       <c r="I15" t="n">
-        <v>0.537234</v>
+        <v>0.820017</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5002259999999999</v>
+        <v>0.808602</v>
       </c>
       <c r="K15" t="n">
-        <v>0.468776</v>
+        <v>0.798611</v>
       </c>
       <c r="L15" t="n">
-        <v>0.442618</v>
+        <v>0.7899389999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.421524</v>
+        <v>0.7826</v>
       </c>
       <c r="N15" t="n">
-        <v>0.405309</v>
+        <v>0.7766960000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>0.39383</v>
+        <v>0.772357</v>
       </c>
       <c r="P15" t="n">
-        <v>0.386983</v>
+        <v>0.769696</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.384708</v>
+        <v>0.768799</v>
       </c>
       <c r="R15" t="n">
-        <v>0.386983</v>
+        <v>0.769696</v>
       </c>
       <c r="S15" t="n">
-        <v>0.39383</v>
+        <v>0.772357</v>
       </c>
       <c r="T15" t="n">
-        <v>0.405309</v>
+        <v>0.7766960000000001</v>
       </c>
       <c r="U15" t="n">
-        <v>0.421524</v>
+        <v>0.7826</v>
       </c>
       <c r="V15" t="n">
-        <v>0.442618</v>
+        <v>0.7899389999999999</v>
       </c>
       <c r="W15" t="n">
-        <v>0.468776</v>
+        <v>0.798611</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5002259999999999</v>
+        <v>0.808602</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.537234</v>
+        <v>0.820017</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.580108</v>
+        <v>0.833093</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.629194</v>
+        <v>0.848229</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.684874</v>
+        <v>0.866015</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.747563</v>
+        <v>0.887229</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.817705</v>
+        <v>0.912847</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.895764</v>
+        <v>0.944047</v>
       </c>
       <c r="AF15" t="n">
         <v>0.982222</v>
@@ -1908,91 +1908,91 @@
         <v>0.995556</v>
       </c>
       <c r="C16" t="n">
-        <v>0.908321</v>
+        <v>0.955012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.829498</v>
+        <v>0.921739</v>
       </c>
       <c r="E16" t="n">
-        <v>0.758616</v>
+        <v>0.894347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.695219</v>
+        <v>0.871654</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6388740000000001</v>
+        <v>0.852676</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5891729999999999</v>
+        <v>0.836627</v>
       </c>
       <c r="I16" t="n">
-        <v>0.54574</v>
+        <v>0.822899</v>
       </c>
       <c r="J16" t="n">
-        <v>0.508232</v>
+        <v>0.811068</v>
       </c>
       <c r="K16" t="n">
-        <v>0.476346</v>
+        <v>0.800862</v>
       </c>
       <c r="L16" t="n">
-        <v>0.449816</v>
+        <v>0.7921319999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>0.428418</v>
+        <v>0.784843</v>
       </c>
       <c r="N16" t="n">
-        <v>0.411966</v>
+        <v>0.779047</v>
       </c>
       <c r="O16" t="n">
-        <v>0.400317</v>
+        <v>0.774825</v>
       </c>
       <c r="P16" t="n">
-        <v>0.393368</v>
+        <v>0.772251</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.391059</v>
+        <v>0.771386</v>
       </c>
       <c r="R16" t="n">
-        <v>0.393368</v>
+        <v>0.772251</v>
       </c>
       <c r="S16" t="n">
-        <v>0.400317</v>
+        <v>0.774825</v>
       </c>
       <c r="T16" t="n">
-        <v>0.411966</v>
+        <v>0.779047</v>
       </c>
       <c r="U16" t="n">
-        <v>0.428418</v>
+        <v>0.784843</v>
       </c>
       <c r="V16" t="n">
-        <v>0.449816</v>
+        <v>0.7921319999999999</v>
       </c>
       <c r="W16" t="n">
-        <v>0.476346</v>
+        <v>0.800862</v>
       </c>
       <c r="X16" t="n">
-        <v>0.508232</v>
+        <v>0.811068</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.54574</v>
+        <v>0.822899</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.5891729999999999</v>
+        <v>0.836627</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.6388740000000001</v>
+        <v>0.852676</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.695219</v>
+        <v>0.871654</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.758616</v>
+        <v>0.894347</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.829498</v>
+        <v>0.921739</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.908321</v>
+        <v>0.955012</v>
       </c>
       <c r="AF16" t="n">
         <v>0.995556</v>
@@ -2006,91 +2006,91 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.912508</v>
+        <v>0.958685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.833431</v>
+        <v>0.924726</v>
       </c>
       <c r="E17" t="n">
-        <v>0.762303</v>
+        <v>0.896745</v>
       </c>
       <c r="F17" t="n">
-        <v>0.698672</v>
+        <v>0.873559</v>
       </c>
       <c r="G17" t="n">
-        <v>0.642106</v>
+        <v>0.8541840000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5921999999999999</v>
+        <v>0.837829</v>
       </c>
       <c r="I17" t="n">
-        <v>0.548581</v>
+        <v>0.823882</v>
       </c>
       <c r="J17" t="n">
-        <v>0.510907</v>
+        <v>0.81191</v>
       </c>
       <c r="K17" t="n">
-        <v>0.478876</v>
+        <v>0.801628</v>
       </c>
       <c r="L17" t="n">
-        <v>0.452222</v>
+        <v>0.792874</v>
       </c>
       <c r="M17" t="n">
-        <v>0.430722</v>
+        <v>0.785597</v>
       </c>
       <c r="N17" t="n">
-        <v>0.414191</v>
+        <v>0.779832</v>
       </c>
       <c r="O17" t="n">
-        <v>0.402486</v>
+        <v>0.775645</v>
       </c>
       <c r="P17" t="n">
-        <v>0.395503</v>
+        <v>0.773098</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.393183</v>
+        <v>0.772242</v>
       </c>
       <c r="R17" t="n">
-        <v>0.395503</v>
+        <v>0.773098</v>
       </c>
       <c r="S17" t="n">
-        <v>0.402486</v>
+        <v>0.775645</v>
       </c>
       <c r="T17" t="n">
-        <v>0.414191</v>
+        <v>0.779832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.430722</v>
+        <v>0.785597</v>
       </c>
       <c r="V17" t="n">
-        <v>0.452222</v>
+        <v>0.792874</v>
       </c>
       <c r="W17" t="n">
-        <v>0.478876</v>
+        <v>0.801628</v>
       </c>
       <c r="X17" t="n">
-        <v>0.510907</v>
+        <v>0.81191</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.548581</v>
+        <v>0.823882</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5921999999999999</v>
+        <v>0.837829</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.642106</v>
+        <v>0.8541840000000001</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.698672</v>
+        <v>0.873559</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.762303</v>
+        <v>0.896745</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.833431</v>
+        <v>0.924726</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.912508</v>
+        <v>0.958685</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -2104,91 +2104,91 @@
         <v>0.995556</v>
       </c>
       <c r="C18" t="n">
-        <v>0.908321</v>
+        <v>0.955012</v>
       </c>
       <c r="D18" t="n">
-        <v>0.829498</v>
+        <v>0.921739</v>
       </c>
       <c r="E18" t="n">
-        <v>0.758616</v>
+        <v>0.894347</v>
       </c>
       <c r="F18" t="n">
-        <v>0.695219</v>
+        <v>0.871654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6388740000000001</v>
+        <v>0.852676</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5891729999999999</v>
+        <v>0.836627</v>
       </c>
       <c r="I18" t="n">
-        <v>0.54574</v>
+        <v>0.822899</v>
       </c>
       <c r="J18" t="n">
-        <v>0.508232</v>
+        <v>0.811068</v>
       </c>
       <c r="K18" t="n">
-        <v>0.476346</v>
+        <v>0.800862</v>
       </c>
       <c r="L18" t="n">
-        <v>0.449816</v>
+        <v>0.7921319999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>0.428418</v>
+        <v>0.784843</v>
       </c>
       <c r="N18" t="n">
-        <v>0.411966</v>
+        <v>0.779047</v>
       </c>
       <c r="O18" t="n">
-        <v>0.400317</v>
+        <v>0.774825</v>
       </c>
       <c r="P18" t="n">
-        <v>0.393368</v>
+        <v>0.772251</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.391059</v>
+        <v>0.771386</v>
       </c>
       <c r="R18" t="n">
-        <v>0.393368</v>
+        <v>0.772251</v>
       </c>
       <c r="S18" t="n">
-        <v>0.400317</v>
+        <v>0.774825</v>
       </c>
       <c r="T18" t="n">
-        <v>0.411966</v>
+        <v>0.779047</v>
       </c>
       <c r="U18" t="n">
-        <v>0.428418</v>
+        <v>0.784843</v>
       </c>
       <c r="V18" t="n">
-        <v>0.449816</v>
+        <v>0.7921319999999999</v>
       </c>
       <c r="W18" t="n">
-        <v>0.476346</v>
+        <v>0.800862</v>
       </c>
       <c r="X18" t="n">
-        <v>0.508232</v>
+        <v>0.811068</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.54574</v>
+        <v>0.822899</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5891729999999999</v>
+        <v>0.836627</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6388740000000001</v>
+        <v>0.852676</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.695219</v>
+        <v>0.871654</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.758616</v>
+        <v>0.894347</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.829498</v>
+        <v>0.921739</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.908321</v>
+        <v>0.955012</v>
       </c>
       <c r="AF18" t="n">
         <v>0.995556</v>
@@ -2202,91 +2202,91 @@
         <v>0.982222</v>
       </c>
       <c r="C19" t="n">
-        <v>0.895764</v>
+        <v>0.944047</v>
       </c>
       <c r="D19" t="n">
-        <v>0.817705</v>
+        <v>0.912847</v>
       </c>
       <c r="E19" t="n">
-        <v>0.747563</v>
+        <v>0.887229</v>
       </c>
       <c r="F19" t="n">
-        <v>0.684874</v>
+        <v>0.866015</v>
       </c>
       <c r="G19" t="n">
-        <v>0.629194</v>
+        <v>0.848229</v>
       </c>
       <c r="H19" t="n">
-        <v>0.580108</v>
+        <v>0.833093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.537234</v>
+        <v>0.820017</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5002259999999999</v>
+        <v>0.808602</v>
       </c>
       <c r="K19" t="n">
-        <v>0.468776</v>
+        <v>0.798611</v>
       </c>
       <c r="L19" t="n">
-        <v>0.442618</v>
+        <v>0.7899389999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.421524</v>
+        <v>0.7826</v>
       </c>
       <c r="N19" t="n">
-        <v>0.405309</v>
+        <v>0.7766960000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>0.39383</v>
+        <v>0.772357</v>
       </c>
       <c r="P19" t="n">
-        <v>0.386983</v>
+        <v>0.769696</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.384708</v>
+        <v>0.768799</v>
       </c>
       <c r="R19" t="n">
-        <v>0.386983</v>
+        <v>0.769696</v>
       </c>
       <c r="S19" t="n">
-        <v>0.39383</v>
+        <v>0.772357</v>
       </c>
       <c r="T19" t="n">
-        <v>0.405309</v>
+        <v>0.7766960000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>0.421524</v>
+        <v>0.7826</v>
       </c>
       <c r="V19" t="n">
-        <v>0.442618</v>
+        <v>0.7899389999999999</v>
       </c>
       <c r="W19" t="n">
-        <v>0.468776</v>
+        <v>0.798611</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5002259999999999</v>
+        <v>0.808602</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.537234</v>
+        <v>0.820017</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.580108</v>
+        <v>0.833093</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.629194</v>
+        <v>0.848229</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.684874</v>
+        <v>0.866015</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.747563</v>
+        <v>0.887229</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.817705</v>
+        <v>0.912847</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.895764</v>
+        <v>0.944047</v>
       </c>
       <c r="AF19" t="n">
         <v>0.982222</v>
@@ -2300,91 +2300,91 @@
         <v>0.96</v>
       </c>
       <c r="C20" t="n">
-        <v>0.874847</v>
+        <v>0.9258729999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.798074</v>
+        <v>0.8981749999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.729178</v>
+        <v>0.875547</v>
       </c>
       <c r="F20" t="n">
-        <v>0.667677</v>
+        <v>0.856824</v>
       </c>
       <c r="G20" t="n">
-        <v>0.613113</v>
+        <v>0.841039</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5650579999999999</v>
+        <v>0.82743</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5231209999999999</v>
+        <v>0.81543</v>
       </c>
       <c r="J20" t="n">
-        <v>0.486948</v>
+        <v>0.804685</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456227</v>
+        <v>0.795015</v>
       </c>
       <c r="L20" t="n">
-        <v>0.430688</v>
+        <v>0.786393</v>
       </c>
       <c r="M20" t="n">
-        <v>0.410103</v>
+        <v>0.7789199999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>0.394284</v>
+        <v>0.772788</v>
       </c>
       <c r="O20" t="n">
-        <v>0.383087</v>
+        <v>0.768213</v>
       </c>
       <c r="P20" t="n">
-        <v>0.37641</v>
+        <v>0.7653799999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.374191</v>
+        <v>0.76442</v>
       </c>
       <c r="R20" t="n">
-        <v>0.37641</v>
+        <v>0.7653799999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>0.383087</v>
+        <v>0.768213</v>
       </c>
       <c r="T20" t="n">
-        <v>0.394284</v>
+        <v>0.772788</v>
       </c>
       <c r="U20" t="n">
-        <v>0.410103</v>
+        <v>0.7789199999999999</v>
       </c>
       <c r="V20" t="n">
-        <v>0.430688</v>
+        <v>0.786393</v>
       </c>
       <c r="W20" t="n">
-        <v>0.456227</v>
+        <v>0.795015</v>
       </c>
       <c r="X20" t="n">
-        <v>0.486948</v>
+        <v>0.804685</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5231209999999999</v>
+        <v>0.81543</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5650579999999999</v>
+        <v>0.82743</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.613113</v>
+        <v>0.841039</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.667677</v>
+        <v>0.856824</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.729178</v>
+        <v>0.875547</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.798074</v>
+        <v>0.8981749999999999</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.874847</v>
+        <v>0.9258729999999999</v>
       </c>
       <c r="AF20" t="n">
         <v>0.96</v>
@@ -2398,91 +2398,91 @@
         <v>0.928889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.845591</v>
+        <v>0.900528</v>
       </c>
       <c r="D21" t="n">
-        <v>0.770642</v>
+        <v>0.877821</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7035130000000001</v>
+        <v>0.859465</v>
       </c>
       <c r="F21" t="n">
-        <v>0.643696</v>
+        <v>0.844307</v>
       </c>
       <c r="G21" t="n">
-        <v>0.590709</v>
+        <v>0.831384</v>
       </c>
       <c r="H21" t="n">
-        <v>0.54411</v>
+        <v>0.819941</v>
       </c>
       <c r="I21" t="n">
-        <v>0.503493</v>
+        <v>0.8094440000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.468496</v>
+        <v>0.799596</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438799</v>
+        <v>0.790305</v>
       </c>
       <c r="L21" t="n">
-        <v>0.41413</v>
+        <v>0.781657</v>
       </c>
       <c r="M21" t="n">
-        <v>0.394256</v>
+        <v>0.773887</v>
       </c>
       <c r="N21" t="n">
-        <v>0.378991</v>
+        <v>0.767328</v>
       </c>
       <c r="O21" t="n">
-        <v>0.368191</v>
+        <v>0.762332</v>
       </c>
       <c r="P21" t="n">
-        <v>0.361751</v>
+        <v>0.759195</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.359611</v>
+        <v>0.758125</v>
       </c>
       <c r="R21" t="n">
-        <v>0.361751</v>
+        <v>0.759195</v>
       </c>
       <c r="S21" t="n">
-        <v>0.368191</v>
+        <v>0.762332</v>
       </c>
       <c r="T21" t="n">
-        <v>0.378991</v>
+        <v>0.767328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.394256</v>
+        <v>0.773887</v>
       </c>
       <c r="V21" t="n">
-        <v>0.41413</v>
+        <v>0.781657</v>
       </c>
       <c r="W21" t="n">
-        <v>0.438799</v>
+        <v>0.790305</v>
       </c>
       <c r="X21" t="n">
-        <v>0.468496</v>
+        <v>0.799596</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.503493</v>
+        <v>0.8094440000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.54411</v>
+        <v>0.819941</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.590709</v>
+        <v>0.831384</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.643696</v>
+        <v>0.844307</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.7035130000000001</v>
+        <v>0.859465</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.770642</v>
+        <v>0.877821</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.845591</v>
+        <v>0.900528</v>
       </c>
       <c r="AF21" t="n">
         <v>0.928889</v>
@@ -2496,91 +2496,91 @@
         <v>0.888889</v>
       </c>
       <c r="C22" t="n">
-        <v>0.808024</v>
+        <v>0.867987</v>
       </c>
       <c r="D22" t="n">
-        <v>0.735466</v>
+        <v>0.851823</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6706490000000001</v>
+        <v>0.839121</v>
       </c>
       <c r="F22" t="n">
-        <v>0.613029</v>
+        <v>0.828708</v>
       </c>
       <c r="G22" t="n">
-        <v>0.562098</v>
+        <v>0.819592</v>
       </c>
       <c r="H22" t="n">
-        <v>0.517391</v>
+        <v>0.811012</v>
       </c>
       <c r="I22" t="n">
-        <v>0.478486</v>
+        <v>0.80246</v>
       </c>
       <c r="J22" t="n">
-        <v>0.445009</v>
+        <v>0.793712</v>
       </c>
       <c r="K22" t="n">
-        <v>0.416636</v>
+        <v>0.784792</v>
       </c>
       <c r="L22" t="n">
-        <v>0.393087</v>
+        <v>0.775946</v>
       </c>
       <c r="M22" t="n">
-        <v>0.37413</v>
+        <v>0.7675999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>0.359577</v>
+        <v>0.760296</v>
       </c>
       <c r="O22" t="n">
-        <v>0.349285</v>
+        <v>0.754588</v>
       </c>
       <c r="P22" t="n">
-        <v>0.34315</v>
+        <v>0.750946</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.341111</v>
+        <v>0.749694</v>
       </c>
       <c r="R22" t="n">
-        <v>0.34315</v>
+        <v>0.750946</v>
       </c>
       <c r="S22" t="n">
-        <v>0.349285</v>
+        <v>0.754588</v>
       </c>
       <c r="T22" t="n">
-        <v>0.359577</v>
+        <v>0.760296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.37413</v>
+        <v>0.7675999999999999</v>
       </c>
       <c r="V22" t="n">
-        <v>0.393087</v>
+        <v>0.775946</v>
       </c>
       <c r="W22" t="n">
-        <v>0.416636</v>
+        <v>0.784792</v>
       </c>
       <c r="X22" t="n">
-        <v>0.445009</v>
+        <v>0.793712</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.478486</v>
+        <v>0.80246</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.517391</v>
+        <v>0.811012</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.562098</v>
+        <v>0.819592</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.613029</v>
+        <v>0.828708</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.6706490000000001</v>
+        <v>0.839121</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.735466</v>
+        <v>0.851823</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.808024</v>
+        <v>0.867987</v>
       </c>
       <c r="AF22" t="n">
         <v>0.888889</v>
@@ -2594,91 +2594,91 @@
         <v>0.84</v>
       </c>
       <c r="C23" t="n">
-        <v>0.762184</v>
+        <v>0.828184</v>
       </c>
       <c r="D23" t="n">
-        <v>0.692621</v>
+        <v>0.820188</v>
       </c>
       <c r="E23" t="n">
-        <v>0.630692</v>
+        <v>0.814657</v>
       </c>
       <c r="F23" t="n">
-        <v>0.575811</v>
+        <v>0.810315</v>
       </c>
       <c r="G23" t="n">
-        <v>0.527435</v>
+        <v>0.80608</v>
       </c>
       <c r="H23" t="n">
-        <v>0.48507</v>
+        <v>0.801143</v>
       </c>
       <c r="I23" t="n">
-        <v>0.448278</v>
+        <v>0.795011</v>
       </c>
       <c r="J23" t="n">
-        <v>0.416674</v>
+        <v>0.787536</v>
       </c>
       <c r="K23" t="n">
-        <v>0.389924</v>
+        <v>0.778894</v>
       </c>
       <c r="L23" t="n">
-        <v>0.367747</v>
+        <v>0.769543</v>
       </c>
       <c r="M23" t="n">
-        <v>0.349911</v>
+        <v>0.760175</v>
       </c>
       <c r="N23" t="n">
-        <v>0.336227</v>
+        <v>0.75163</v>
       </c>
       <c r="O23" t="n">
-        <v>0.326554</v>
+        <v>0.744762</v>
       </c>
       <c r="P23" t="n">
-        <v>0.32079</v>
+        <v>0.740302</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.318876</v>
+        <v>0.738756</v>
       </c>
       <c r="R23" t="n">
-        <v>0.32079</v>
+        <v>0.740302</v>
       </c>
       <c r="S23" t="n">
-        <v>0.326554</v>
+        <v>0.744762</v>
       </c>
       <c r="T23" t="n">
-        <v>0.336227</v>
+        <v>0.75163</v>
       </c>
       <c r="U23" t="n">
-        <v>0.349911</v>
+        <v>0.760175</v>
       </c>
       <c r="V23" t="n">
-        <v>0.367747</v>
+        <v>0.769543</v>
       </c>
       <c r="W23" t="n">
-        <v>0.389924</v>
+        <v>0.778894</v>
       </c>
       <c r="X23" t="n">
-        <v>0.416674</v>
+        <v>0.787536</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.448278</v>
+        <v>0.795011</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.48507</v>
+        <v>0.801143</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.527435</v>
+        <v>0.80608</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.575811</v>
+        <v>0.810315</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.630692</v>
+        <v>0.814657</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.692621</v>
+        <v>0.820188</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.762184</v>
+        <v>0.828184</v>
       </c>
       <c r="AF23" t="n">
         <v>0.84</v>
@@ -2692,91 +2692,91 @@
         <v>0.782222</v>
       </c>
       <c r="C24" t="n">
-        <v>0.708125</v>
+        <v>0.78109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.642208</v>
+        <v>0.782996</v>
       </c>
       <c r="E24" t="n">
-        <v>0.583786</v>
+        <v>0.786328</v>
       </c>
       <c r="F24" t="n">
-        <v>0.532218</v>
+        <v>0.789568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.486918</v>
+        <v>0.791444</v>
       </c>
       <c r="H24" t="n">
-        <v>0.447364</v>
+        <v>0.79104</v>
       </c>
       <c r="I24" t="n">
-        <v>0.413097</v>
+        <v>0.787839</v>
       </c>
       <c r="J24" t="n">
-        <v>0.38372</v>
+        <v>0.781775</v>
       </c>
       <c r="K24" t="n">
-        <v>0.358896</v>
+        <v>0.7732</v>
       </c>
       <c r="L24" t="n">
-        <v>0.338343</v>
+        <v>0.762848</v>
       </c>
       <c r="M24" t="n">
-        <v>0.321829</v>
+        <v>0.751771</v>
       </c>
       <c r="N24" t="n">
-        <v>0.30917</v>
+        <v>0.741225</v>
       </c>
       <c r="O24" t="n">
-        <v>0.300226</v>
+        <v>0.732504</v>
       </c>
       <c r="P24" t="n">
-        <v>0.294899</v>
+        <v>0.7267400000000001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.293129</v>
+        <v>0.724724</v>
       </c>
       <c r="R24" t="n">
-        <v>0.294899</v>
+        <v>0.7267400000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>0.300226</v>
+        <v>0.732504</v>
       </c>
       <c r="T24" t="n">
-        <v>0.30917</v>
+        <v>0.741225</v>
       </c>
       <c r="U24" t="n">
-        <v>0.321829</v>
+        <v>0.751771</v>
       </c>
       <c r="V24" t="n">
-        <v>0.338343</v>
+        <v>0.762848</v>
       </c>
       <c r="W24" t="n">
-        <v>0.358896</v>
+        <v>0.7732</v>
       </c>
       <c r="X24" t="n">
-        <v>0.38372</v>
+        <v>0.781775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.413097</v>
+        <v>0.787839</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.447364</v>
+        <v>0.79104</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.486918</v>
+        <v>0.791444</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.532218</v>
+        <v>0.789568</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.583786</v>
+        <v>0.786328</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.642208</v>
+        <v>0.782996</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.708125</v>
+        <v>0.78109</v>
       </c>
       <c r="AF24" t="n">
         <v>0.782222</v>
@@ -2790,91 +2790,91 @@
         <v>0.715556</v>
       </c>
       <c r="C25" t="n">
-        <v>0.645916</v>
+        <v>0.726789</v>
       </c>
       <c r="D25" t="n">
-        <v>0.58436</v>
+        <v>0.740511</v>
       </c>
       <c r="E25" t="n">
-        <v>0.530116</v>
+        <v>0.754613</v>
       </c>
       <c r="F25" t="n">
-        <v>0.482476</v>
+        <v>0.76716</v>
       </c>
       <c r="G25" t="n">
-        <v>0.440803</v>
+        <v>0.776564</v>
       </c>
       <c r="H25" t="n">
-        <v>0.404543</v>
+        <v>0.781703</v>
       </c>
       <c r="I25" t="n">
-        <v>0.37322</v>
+        <v>0.781987</v>
       </c>
       <c r="J25" t="n">
-        <v>0.34643</v>
+        <v>0.777411</v>
       </c>
       <c r="K25" t="n">
-        <v>0.323834</v>
+        <v>0.768529</v>
       </c>
       <c r="L25" t="n">
-        <v>0.305153</v>
+        <v>0.756417</v>
       </c>
       <c r="M25" t="n">
-        <v>0.29016</v>
+        <v>0.742595</v>
       </c>
       <c r="N25" t="n">
-        <v>0.278676</v>
+        <v>0.728898</v>
       </c>
       <c r="O25" t="n">
-        <v>0.270568</v>
+        <v>0.717259</v>
       </c>
       <c r="P25" t="n">
-        <v>0.26574</v>
+        <v>0.7094279999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.264136</v>
+        <v>0.706663</v>
       </c>
       <c r="R25" t="n">
-        <v>0.26574</v>
+        <v>0.7094279999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>0.270568</v>
+        <v>0.717259</v>
       </c>
       <c r="T25" t="n">
-        <v>0.278676</v>
+        <v>0.728898</v>
       </c>
       <c r="U25" t="n">
-        <v>0.29016</v>
+        <v>0.742595</v>
       </c>
       <c r="V25" t="n">
-        <v>0.305153</v>
+        <v>0.756417</v>
       </c>
       <c r="W25" t="n">
-        <v>0.323834</v>
+        <v>0.768529</v>
       </c>
       <c r="X25" t="n">
-        <v>0.34643</v>
+        <v>0.777411</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.37322</v>
+        <v>0.781987</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.404543</v>
+        <v>0.781703</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.440803</v>
+        <v>0.776564</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.482476</v>
+        <v>0.76716</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.530116</v>
+        <v>0.754613</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.58436</v>
+        <v>0.740511</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.645916</v>
+        <v>0.726789</v>
       </c>
       <c r="AF25" t="n">
         <v>0.715556</v>
@@ -2888,91 +2888,91 @@
         <v>0.64</v>
       </c>
       <c r="C26" t="n">
-        <v>0.575651</v>
+        <v>0.665563</v>
       </c>
       <c r="D26" t="n">
-        <v>0.519254</v>
+        <v>0.6932970000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.469926</v>
+        <v>0.720354</v>
       </c>
       <c r="F26" t="n">
-        <v>0.426872</v>
+        <v>0.744185</v>
       </c>
       <c r="G26" t="n">
-        <v>0.389405</v>
+        <v>0.762731</v>
       </c>
       <c r="H26" t="n">
-        <v>0.35694</v>
+        <v>0.77455</v>
       </c>
       <c r="I26" t="n">
-        <v>0.328988</v>
+        <v>0.778903</v>
       </c>
       <c r="J26" t="n">
-        <v>0.305142</v>
+        <v>0.775807</v>
       </c>
       <c r="K26" t="n">
-        <v>0.28507</v>
+        <v>0.766026</v>
       </c>
       <c r="L26" t="n">
-        <v>0.268502</v>
+        <v>0.751033</v>
       </c>
       <c r="M26" t="n">
-        <v>0.255221</v>
+        <v>0.732943</v>
       </c>
       <c r="N26" t="n">
-        <v>0.245058</v>
+        <v>0.7143659999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>0.237886</v>
+        <v>0.698161</v>
       </c>
       <c r="P26" t="n">
-        <v>0.233618</v>
+        <v>0.687047</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2322</v>
+        <v>0.683079</v>
       </c>
       <c r="R26" t="n">
-        <v>0.233618</v>
+        <v>0.687047</v>
       </c>
       <c r="S26" t="n">
-        <v>0.237886</v>
+        <v>0.698161</v>
       </c>
       <c r="T26" t="n">
-        <v>0.245058</v>
+        <v>0.7143659999999999</v>
       </c>
       <c r="U26" t="n">
-        <v>0.255221</v>
+        <v>0.732943</v>
       </c>
       <c r="V26" t="n">
-        <v>0.268502</v>
+        <v>0.751033</v>
       </c>
       <c r="W26" t="n">
-        <v>0.28507</v>
+        <v>0.766026</v>
       </c>
       <c r="X26" t="n">
-        <v>0.305142</v>
+        <v>0.775807</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.328988</v>
+        <v>0.778903</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.35694</v>
+        <v>0.77455</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.389405</v>
+        <v>0.762731</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.426872</v>
+        <v>0.744185</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.469926</v>
+        <v>0.720354</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.519254</v>
+        <v>0.6932970000000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.575651</v>
+        <v>0.665563</v>
       </c>
       <c r="AF26" t="n">
         <v>0.64</v>
@@ -2986,91 +2986,91 @@
         <v>0.555556</v>
       </c>
       <c r="C27" t="n">
-        <v>0.497459</v>
+        <v>0.597958</v>
       </c>
       <c r="D27" t="n">
-        <v>0.447128</v>
+        <v>0.642342</v>
       </c>
       <c r="E27" t="n">
-        <v>0.403531</v>
+        <v>0.684898</v>
       </c>
       <c r="F27" t="n">
-        <v>0.365776</v>
+        <v>0.722281</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333122</v>
+        <v>0.7518010000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0.304961</v>
+        <v>0.7715689999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>0.280803</v>
+        <v>0.780597</v>
       </c>
       <c r="J27" t="n">
-        <v>0.260252</v>
+        <v>0.7788580000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.24299</v>
+        <v>0.767303</v>
       </c>
       <c r="L27" t="n">
-        <v>0.228765</v>
+        <v>0.7478399999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.217376</v>
+        <v>0.723283</v>
       </c>
       <c r="N27" t="n">
-        <v>0.208668</v>
+        <v>0.697248</v>
       </c>
       <c r="O27" t="n">
-        <v>0.202528</v>
+        <v>0.673906</v>
       </c>
       <c r="P27" t="n">
-        <v>0.198874</v>
+        <v>0.657514</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.197662</v>
+        <v>0.651558</v>
       </c>
       <c r="R27" t="n">
-        <v>0.198874</v>
+        <v>0.657514</v>
       </c>
       <c r="S27" t="n">
-        <v>0.202528</v>
+        <v>0.673906</v>
       </c>
       <c r="T27" t="n">
-        <v>0.208668</v>
+        <v>0.697248</v>
       </c>
       <c r="U27" t="n">
-        <v>0.217376</v>
+        <v>0.723283</v>
       </c>
       <c r="V27" t="n">
-        <v>0.228765</v>
+        <v>0.7478399999999999</v>
       </c>
       <c r="W27" t="n">
-        <v>0.24299</v>
+        <v>0.767303</v>
       </c>
       <c r="X27" t="n">
-        <v>0.260252</v>
+        <v>0.7788580000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.280803</v>
+        <v>0.780597</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.304961</v>
+        <v>0.7715689999999999</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.333122</v>
+        <v>0.7518010000000001</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.365776</v>
+        <v>0.722281</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.403531</v>
+        <v>0.684898</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.447128</v>
+        <v>0.642342</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.497459</v>
+        <v>0.597958</v>
       </c>
       <c r="AF27" t="n">
         <v>0.555556</v>
@@ -3084,91 +3084,91 @@
         <v>0.462222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.411523</v>
+        <v>0.524831</v>
       </c>
       <c r="D28" t="n">
-        <v>0.36831</v>
+        <v>0.589155</v>
       </c>
       <c r="E28" t="n">
-        <v>0.331355</v>
+        <v>0.650245</v>
       </c>
       <c r="F28" t="n">
-        <v>0.299661</v>
+        <v>0.703805</v>
       </c>
       <c r="G28" t="n">
-        <v>0.272443</v>
+        <v>0.746382</v>
       </c>
       <c r="H28" t="n">
-        <v>0.249094</v>
+        <v>0.775511</v>
       </c>
       <c r="I28" t="n">
-        <v>0.229142</v>
+        <v>0.789838</v>
       </c>
       <c r="J28" t="n">
-        <v>0.212218</v>
+        <v>0.7892</v>
       </c>
       <c r="K28" t="n">
-        <v>0.198033</v>
+        <v>0.774668</v>
       </c>
       <c r="L28" t="n">
-        <v>0.186362</v>
+        <v>0.7485579999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>0.177029</v>
+        <v>0.7144430000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>0.169899</v>
+        <v>0.6771430000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>0.164874</v>
+        <v>0.64261</v>
       </c>
       <c r="P28" t="n">
-        <v>0.161886</v>
+        <v>0.61753</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.160894</v>
+        <v>0.6081260000000001</v>
       </c>
       <c r="R28" t="n">
-        <v>0.161886</v>
+        <v>0.61753</v>
       </c>
       <c r="S28" t="n">
-        <v>0.164874</v>
+        <v>0.64261</v>
       </c>
       <c r="T28" t="n">
-        <v>0.169899</v>
+        <v>0.6771430000000001</v>
       </c>
       <c r="U28" t="n">
-        <v>0.177029</v>
+        <v>0.7144430000000001</v>
       </c>
       <c r="V28" t="n">
-        <v>0.186362</v>
+        <v>0.7485579999999999</v>
       </c>
       <c r="W28" t="n">
-        <v>0.198033</v>
+        <v>0.774668</v>
       </c>
       <c r="X28" t="n">
-        <v>0.212218</v>
+        <v>0.7892</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.229142</v>
+        <v>0.789838</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.249094</v>
+        <v>0.775511</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.272443</v>
+        <v>0.746382</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.299661</v>
+        <v>0.703805</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.331355</v>
+        <v>0.650245</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.36831</v>
+        <v>0.589155</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.411523</v>
+        <v>0.524831</v>
       </c>
       <c r="AF28" t="n">
         <v>0.462222</v>
@@ -3182,91 +3182,91 @@
         <v>0.36</v>
       </c>
       <c r="C29" t="n">
-        <v>0.318116</v>
+        <v>0.447385</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283266</v>
+        <v>0.535841</v>
       </c>
       <c r="E29" t="n">
-        <v>0.253968</v>
+        <v>0.619146</v>
       </c>
       <c r="F29" t="n">
-        <v>0.229133</v>
+        <v>0.691961</v>
       </c>
       <c r="G29" t="n">
-        <v>0.207976</v>
+        <v>0.7499749999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.189926</v>
+        <v>0.790045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.174561</v>
+        <v>0.810331</v>
       </c>
       <c r="J29" t="n">
-        <v>0.161564</v>
+        <v>0.810415</v>
       </c>
       <c r="K29" t="n">
-        <v>0.150692</v>
+        <v>0.791362</v>
       </c>
       <c r="L29" t="n">
-        <v>0.14176</v>
+        <v>0.755787</v>
       </c>
       <c r="M29" t="n">
-        <v>0.134625</v>
+        <v>0.70794</v>
       </c>
       <c r="N29" t="n">
-        <v>0.129178</v>
+        <v>0.653881</v>
       </c>
       <c r="O29" t="n">
-        <v>0.125341</v>
+        <v>0.601737</v>
       </c>
       <c r="P29" t="n">
-        <v>0.12306</v>
+        <v>0.561854</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.122303</v>
+        <v>0.545882</v>
       </c>
       <c r="R29" t="n">
-        <v>0.12306</v>
+        <v>0.561854</v>
       </c>
       <c r="S29" t="n">
-        <v>0.125341</v>
+        <v>0.601737</v>
       </c>
       <c r="T29" t="n">
-        <v>0.129178</v>
+        <v>0.653881</v>
       </c>
       <c r="U29" t="n">
-        <v>0.134625</v>
+        <v>0.70794</v>
       </c>
       <c r="V29" t="n">
-        <v>0.14176</v>
+        <v>0.755787</v>
       </c>
       <c r="W29" t="n">
-        <v>0.150692</v>
+        <v>0.791362</v>
       </c>
       <c r="X29" t="n">
-        <v>0.161564</v>
+        <v>0.810415</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.174561</v>
+        <v>0.810331</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.189926</v>
+        <v>0.790045</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.207976</v>
+        <v>0.7499749999999999</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.229133</v>
+        <v>0.691961</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.253968</v>
+        <v>0.619146</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.283266</v>
+        <v>0.535841</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.318116</v>
+        <v>0.447385</v>
       </c>
       <c r="AF29" t="n">
         <v>0.36</v>
@@ -3280,91 +3280,91 @@
         <v>0.248889</v>
       </c>
       <c r="C30" t="n">
-        <v>0.21769</v>
+        <v>0.367243</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192696</v>
+        <v>0.485212</v>
       </c>
       <c r="E30" t="n">
-        <v>0.172155</v>
+        <v>0.595236</v>
       </c>
       <c r="F30" t="n">
-        <v>0.154976</v>
+        <v>0.6909419999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>0.140462</v>
+        <v>0.767139</v>
       </c>
       <c r="H30" t="n">
-        <v>0.128143</v>
+        <v>0.8199419999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.117693</v>
+        <v>0.846929</v>
       </c>
       <c r="J30" t="n">
-        <v>0.108874</v>
+        <v>0.847287</v>
       </c>
       <c r="K30" t="n">
-        <v>0.10151</v>
+        <v>0.821904</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0954663</v>
+        <v>0.773461</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0906425</v>
+        <v>0.706583</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0869626</v>
+        <v>0.62821</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0843714</v>
+        <v>0.548441</v>
       </c>
       <c r="P30" t="n">
-        <v>0.08283119999999999</v>
+        <v>0.482245</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0823202</v>
+        <v>0.451694</v>
       </c>
       <c r="R30" t="n">
-        <v>0.08283119999999999</v>
+        <v>0.482245</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0843714</v>
+        <v>0.548441</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0869626</v>
+        <v>0.62821</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0906425</v>
+        <v>0.706583</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0954663</v>
+        <v>0.773461</v>
       </c>
       <c r="W30" t="n">
-        <v>0.10151</v>
+        <v>0.821904</v>
       </c>
       <c r="X30" t="n">
-        <v>0.108874</v>
+        <v>0.847287</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.117693</v>
+        <v>0.846929</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.128143</v>
+        <v>0.8199419999999999</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.140462</v>
+        <v>0.767139</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.154976</v>
+        <v>0.6909419999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.172155</v>
+        <v>0.595236</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.192696</v>
+        <v>0.485212</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.21769</v>
+        <v>0.367243</v>
       </c>
       <c r="AF30" t="n">
         <v>0.248889</v>
@@ -3378,91 +3378,91 @@
         <v>0.128889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111066</v>
+        <v>0.286684</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0976897</v>
+        <v>0.440968</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0870054</v>
+        <v>0.583178</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07818940000000001</v>
+        <v>0.706071</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0707927</v>
+        <v>0.803635</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06454029999999999</v>
+        <v>0.871236</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0592494</v>
+        <v>0.90581</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0547916</v>
+        <v>0.906031</v>
       </c>
       <c r="K31" t="n">
-        <v>0.051073</v>
+        <v>0.872416</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0480237</v>
+        <v>0.807397</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0455912</v>
+        <v>0.715427</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0437363</v>
+        <v>0.603322</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0424305</v>
+        <v>0.481378</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0416544</v>
+        <v>0.366966</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.041397</v>
+        <v>0.296406</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0416544</v>
+        <v>0.366966</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0424305</v>
+        <v>0.481378</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0437363</v>
+        <v>0.603322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0455912</v>
+        <v>0.715427</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0480237</v>
+        <v>0.807397</v>
       </c>
       <c r="W31" t="n">
-        <v>0.051073</v>
+        <v>0.872416</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0547916</v>
+        <v>0.906031</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0592494</v>
+        <v>0.90581</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.06454029999999999</v>
+        <v>0.871236</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0707927</v>
+        <v>0.803635</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.07818940000000001</v>
+        <v>0.706071</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0870054</v>
+        <v>0.583178</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0976897</v>
+        <v>0.440968</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.111066</v>
+        <v>0.286684</v>
       </c>
       <c r="AF31" t="n">
         <v>0.128889</v>
@@ -3473,94 +3473,94 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.00159265</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.209365</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.407997</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.588816</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.743926</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.866556</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.9513509999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.99461</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.994444</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.950859</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.86576</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.742861</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.5875280000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.406543</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.207808</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>6.10068e-16</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.207808</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.406543</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.5875280000000001</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.742861</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.86576</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.950859</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.994444</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.99461</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>0.9513509999999999</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>0.866556</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>0.743926</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>0.588816</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>0.407997</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>0.209365</v>
       </c>
       <c r="AF32" t="n">
         <v>6.66134e-16</v>
